--- a/data/staff_list.xlsx
+++ b/data/staff_list.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="34">
   <si>
     <t>Name</t>
   </si>

--- a/data/staff_list.xlsx
+++ b/data/staff_list.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="74">
   <si>
     <t>kumar Blackmore</t>
   </si>
@@ -900,7 +900,7 @@
         <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G9" t="s">
         <v>13</v>

--- a/data/staff_list.xlsx
+++ b/data/staff_list.xlsx
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">staff!$A$2:$B$84</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">staff!$A$11:$XFD$11</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">staff!$A$10:$XFD$10</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -661,7 +661,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55DE67C8-F00F-4E71-A7B2-83068F640C77}">
-  <dimension ref="A1:H65"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -703,13 +703,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -718,10 +718,10 @@
         <v>3</v>
       </c>
       <c r="F2">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="G2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H2" t="s">
         <v>53</v>
@@ -729,25 +729,25 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F3">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
         <v>53</v>
@@ -755,25 +755,25 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>11</v>
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="F4">
-        <v>27</v>
+      <c r="F4" t="s">
+        <v>72</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H4" t="s">
         <v>53</v>
@@ -781,25 +781,25 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
         <v>53</v>
@@ -807,25 +807,25 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
+        <v>28</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" t="s">
-        <v>73</v>
+        <v>12</v>
+      </c>
+      <c r="F6">
+        <v>62</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H6" t="s">
         <v>53</v>
@@ -833,25 +833,25 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>19</v>
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7">
-        <v>62</v>
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="H7" t="s">
         <v>53</v>
@@ -859,25 +859,25 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8" t="s">
         <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="G8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H8" t="s">
         <v>53</v>
@@ -885,25 +885,25 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H9" t="s">
         <v>53</v>
@@ -911,39 +911,39 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
         <v>3</v>
       </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G10" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="D11" t="s">
         <v>2</v>
@@ -952,48 +952,26 @@
         <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" t="s">
-        <v>53</v>
-      </c>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="3"/>
+      <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="3"/>
-      <c r="B13" s="1"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="4"/>
-      <c r="B14" s="2"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
@@ -1009,7 +987,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
-      <c r="B18" s="1"/>
+      <c r="B18" s="2"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
@@ -1017,7 +995,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
-      <c r="B20" s="2"/>
+      <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
@@ -1032,12 +1010,12 @@
       <c r="B23" s="1"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="3"/>
-      <c r="B24" s="1"/>
+      <c r="A24" s="1"/>
+      <c r="B24" s="2"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="1"/>
-      <c r="B25" s="2"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="1"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
@@ -1048,12 +1026,12 @@
       <c r="B27" s="1"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="3"/>
-      <c r="B28" s="1"/>
+      <c r="A28" s="1"/>
+      <c r="B28" s="2"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="1"/>
-      <c r="B29" s="2"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="1"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
@@ -1092,23 +1070,23 @@
       <c r="B38" s="1"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="3"/>
-      <c r="B39" s="1"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="7"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="6"/>
-      <c r="B40" s="7"/>
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="1"/>
+      <c r="A41" s="3"/>
       <c r="B41" s="1"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="3"/>
-      <c r="B42" s="1"/>
+      <c r="B42" s="2"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="3"/>
+      <c r="A43" s="1"/>
       <c r="B43" s="2"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
@@ -1116,16 +1094,16 @@
       <c r="B44" s="2"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="1"/>
-      <c r="B45" s="2"/>
+      <c r="A45" s="3"/>
+      <c r="B45" s="1"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="3"/>
-      <c r="B46" s="1"/>
+      <c r="A46" s="1"/>
+      <c r="B46" s="2"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" s="1"/>
-      <c r="B47" s="2"/>
+      <c r="A47" s="3"/>
+      <c r="B47" s="1"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="3"/>
@@ -1141,18 +1119,17 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="3"/>
-      <c r="B51" s="1"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="3"/>
+      <c r="B52" s="1"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="3"/>
       <c r="B53" s="1"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" s="3"/>
-      <c r="B54" s="1"/>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="2"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="2"/>
@@ -1160,7 +1137,7 @@
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="2"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" s="2"/>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.35">
@@ -1178,14 +1155,11 @@
     <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" s="2"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A65" s="2"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" display="ARVI@NTU.EDU.SG" xr:uid="{0A8C3208-0568-4032-9F41-062F2DB832D8}"/>
-    <hyperlink ref="C4" r:id="rId2" display="ANWIT@NTU.EDU.SG" xr:uid="{6FA42320-FD24-4F19-9065-11F28F4FDD9F}"/>
-    <hyperlink ref="C3" r:id="rId3" display="UPAM@NTU.EDU.SG" xr:uid="{11DEDB14-B28D-4A52-A10D-1C4D2E609BDB}"/>
+    <hyperlink ref="C4" r:id="rId1" display="ARVI@NTU.EDU.SG" xr:uid="{0A8C3208-0568-4032-9F41-062F2DB832D8}"/>
+    <hyperlink ref="C3" r:id="rId2" display="ANWIT@NTU.EDU.SG" xr:uid="{6FA42320-FD24-4F19-9065-11F28F4FDD9F}"/>
+    <hyperlink ref="C2" r:id="rId3" display="UPAM@NTU.EDU.SG" xr:uid="{11DEDB14-B28D-4A52-A10D-1C4D2E609BDB}"/>
     <hyperlink ref="C2" r:id="rId4" display="OURIN@ntu.edu.sg" xr:uid="{B8816F67-50F4-4260-B2A3-94366A7863FA}"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/data/staff_list.xlsx
+++ b/data/staff_list.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="79">
   <si>
     <t>kumar Blackmore</t>
   </si>
@@ -251,6 +251,21 @@
   </si>
   <si>
     <t>49</t>
+  </si>
+  <si>
+    <t>Tom Chan Lim</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>Tom Chan</t>
+  </si>
+  <si>
+    <t>TomCh</t>
+  </si>
+  <si>
+    <t>57</t>
   </si>
 </sst>
 </file>
@@ -705,10 +720,10 @@
       <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="8" t="s">
+      <c r="B2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
@@ -717,8 +732,8 @@
       <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="F2">
-        <v>56</v>
+      <c r="F2" t="s">
+        <v>78</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>

--- a/data/staff_list.xlsx
+++ b/data/staff_list.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="83">
   <si>
     <t>kumar Blackmore</t>
   </si>
@@ -278,18 +278,6 @@
   </si>
   <si>
     <t>e5a5be4fcbe8a671d25105efa247da2bda165fa64a81711de495f02f5fff4ce88208ab93c6c658e8a35a41b4a21f2c04d5324ff0205a803ae14254279e45e15e</t>
-  </si>
-  <si>
-    <t>edd4056d-1ca8-4b31-a62d-f5d8db306ec7</t>
-  </si>
-  <si>
-    <t>Jane Doe</t>
-  </si>
-  <si>
-    <t>janedoe</t>
-  </si>
-  <si>
-    <t>21</t>
   </si>
 </sst>
 </file>
@@ -920,31 +908,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>83</v>
-      </c>
-      <c r="B9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" t="s">
-        <v>86</v>
-      </c>
-      <c r="G9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" t="s">
-        <v>52</v>
-      </c>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="3"/>
+      <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
